--- a/presidential-polling-obama-clinton-trump-romney/presidential-polling-obama-clinton-trump-romney.xlsx
+++ b/presidential-polling-obama-clinton-trump-romney/presidential-polling-obama-clinton-trump-romney.xlsx
@@ -17,145 +17,145 @@
     <t>key</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
     <t>headline</t>
   </si>
   <si>
     <t>The Headline For This Line Chart</t>
   </si>
   <si>
+    <t>1/1/89</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
+    <t>1.84</t>
+  </si>
+  <si>
     <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
   </si>
   <si>
+    <t>3.864</t>
+  </si>
+  <si>
+    <t>5.796</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>4/1/89</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>3.885</t>
+  </si>
+  <si>
+    <t>5.8275</t>
+  </si>
+  <si>
+    <t>2.775</t>
+  </si>
+  <si>
+    <t>7/1/89</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>3.927</t>
+  </si>
+  <si>
+    <t>5.8905</t>
+  </si>
+  <si>
+    <t>2.805</t>
+  </si>
+  <si>
+    <t>10/1/89</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>3.948</t>
+  </si>
+  <si>
+    <t>5.922</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>1/1/90</t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
+    <t>4/1/90</t>
+  </si>
+  <si>
+    <t>7/1/90</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>3.822</t>
+  </si>
+  <si>
+    <t>5.733</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>10/1/90</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>3.759</t>
+  </si>
+  <si>
+    <t>5.6385</t>
+  </si>
+  <si>
+    <t>2.685</t>
+  </si>
+  <si>
+    <t>1/1/91</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>1/1/89</t>
-  </si>
-  <si>
-    <t>1.84</t>
-  </si>
-  <si>
-    <t>3.864</t>
-  </si>
-  <si>
-    <t>5.796</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>4/1/89</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>3.885</t>
-  </si>
-  <si>
-    <t>5.8275</t>
-  </si>
-  <si>
-    <t>2.775</t>
-  </si>
-  <si>
-    <t>7/1/89</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>3.927</t>
-  </si>
-  <si>
-    <t>5.8905</t>
-  </si>
-  <si>
-    <t>2.805</t>
-  </si>
-  <si>
-    <t>10/1/89</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>3.948</t>
-  </si>
-  <si>
-    <t>5.922</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>1/1/90</t>
-  </si>
-  <si>
-    <t>4/1/90</t>
-  </si>
-  <si>
-    <t>7/1/90</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>3.822</t>
-  </si>
-  <si>
-    <t>5.733</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>10/1/90</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>3.759</t>
-  </si>
-  <si>
-    <t>5.6385</t>
-  </si>
-  <si>
-    <t>2.685</t>
-  </si>
-  <si>
-    <t>1/1/91</t>
   </si>
   <si>
     <t>4/1/91</t>
@@ -980,12 +980,12 @@
       <sz val="14.0"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
       <sz val="14.0"/>
     </font>
     <font/>
-    <font>
-      <b/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1002,46 +1002,41 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1050,16 +1045,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1074,468 +1072,468 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1544,6 +1542,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1554,1757 +1555,1757 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="E23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C79" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D79" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="E79" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="C80" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D80" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E80" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="9" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="D92" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B81" s="9" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C102" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D102" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="7" t="s">
         <v>238</v>
       </c>
     </row>
